--- a/data/hotels_by_city/Denver/Denver_shard_235.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_235.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d12156898-Reviews-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Residence-Inn-By-Marriott-Denver-Stapleton.h17038508.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,634 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r595868810-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>12156898</t>
+  </si>
+  <si>
+    <t>595868810</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Amazing Staff! Beautiful Hotel. One negative.</t>
+  </si>
+  <si>
+    <t>This was my birthday weekend, and it turned out to be even more special because my daughter became engaged to be married that evening. The wrong staff member could have ruined our stay, but you have a wonderful staff manager in Melissa, who helped us all the way and treated us, and other guests wonderfully. Melissa needs to be rewarded, as well as DeJuan (DJ), who in advance of our visit talked to me by phone several times to assure us of your amenities and clarify our stay, and then helped the morning of our stay as well. The negative was that I stepped barefoot on broken glass and a piece went into my foot. We didn't have a bathtub in our room (our fault for not asking), and since my husband and I have severe muscle pain, we planned to use the whirlpool. Well, in the morning, I went to the whirlpool first and, while enjoying it, stepped on glass in the water. I brought it to the attention of a custodian and DeJuan, who kindly came to see where it was and promised to have the whirlpool drained and cleaned, and asked if I was alright. I gave him a coffee cup with the glass on it. I also emailed the GM, Rachel, who apologized and updated me and offered me a discount on a future stay, although I was hoping to be compensated a day so that...This was my birthday weekend, and it turned out to be even more special because my daughter became engaged to be married that evening. The wrong staff member could have ruined our stay, but you have a wonderful staff manager in Melissa, who helped us all the way and treated us, and other guests wonderfully. Melissa needs to be rewarded, as well as DeJuan (DJ), who in advance of our visit talked to me by phone several times to assure us of your amenities and clarify our stay, and then helped the morning of our stay as well. The negative was that I stepped barefoot on broken glass and a piece went into my foot. We didn't have a bathtub in our room (our fault for not asking), and since my husband and I have severe muscle pain, we planned to use the whirlpool. Well, in the morning, I went to the whirlpool first and, while enjoying it, stepped on glass in the water. I brought it to the attention of a custodian and DeJuan, who kindly came to see where it was and promised to have the whirlpool drained and cleaned, and asked if I was alright. I gave him a coffee cup with the glass on it. I also emailed the GM, Rachel, who apologized and updated me and offered me a discount on a future stay, although I was hoping to be compensated a day so that my husband could also enjoy the whirlpool. That was the only negative. The breakfast staff were also friendly and amazing. We'll visit again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This was my birthday weekend, and it turned out to be even more special because my daughter became engaged to be married that evening. The wrong staff member could have ruined our stay, but you have a wonderful staff manager in Melissa, who helped us all the way and treated us, and other guests wonderfully. Melissa needs to be rewarded, as well as DeJuan (DJ), who in advance of our visit talked to me by phone several times to assure us of your amenities and clarify our stay, and then helped the morning of our stay as well. The negative was that I stepped barefoot on broken glass and a piece went into my foot. We didn't have a bathtub in our room (our fault for not asking), and since my husband and I have severe muscle pain, we planned to use the whirlpool. Well, in the morning, I went to the whirlpool first and, while enjoying it, stepped on glass in the water. I brought it to the attention of a custodian and DeJuan, who kindly came to see where it was and promised to have the whirlpool drained and cleaned, and asked if I was alright. I gave him a coffee cup with the glass on it. I also emailed the GM, Rachel, who apologized and updated me and offered me a discount on a future stay, although I was hoping to be compensated a day so that...This was my birthday weekend, and it turned out to be even more special because my daughter became engaged to be married that evening. The wrong staff member could have ruined our stay, but you have a wonderful staff manager in Melissa, who helped us all the way and treated us, and other guests wonderfully. Melissa needs to be rewarded, as well as DeJuan (DJ), who in advance of our visit talked to me by phone several times to assure us of your amenities and clarify our stay, and then helped the morning of our stay as well. The negative was that I stepped barefoot on broken glass and a piece went into my foot. We didn't have a bathtub in our room (our fault for not asking), and since my husband and I have severe muscle pain, we planned to use the whirlpool. Well, in the morning, I went to the whirlpool first and, while enjoying it, stepped on glass in the water. I brought it to the attention of a custodian and DeJuan, who kindly came to see where it was and promised to have the whirlpool drained and cleaned, and asked if I was alright. I gave him a coffee cup with the glass on it. I also emailed the GM, Rachel, who apologized and updated me and offered me a discount on a future stay, although I was hoping to be compensated a day so that my husband could also enjoy the whirlpool. That was the only negative. The breakfast staff were also friendly and amazing. We'll visit again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r595696481-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>595696481</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Great property</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night for business.  It took about 30 minutes from the airport on a Monday afternoon.This property was new and service was excellent.  In the evening, they even had a social event where they offered free alcohol and food.Pros:Very clean and newComfortable room, full kitchen4 HBO channelsFast, reliable WIFIQuiet areaPlenty of parkingGreat service – all of staff was very friendlyCons:Kitchen did not come with cutting board.  Knives are provided thoughToilets are weak and below average.  This is the only reason for giving it less than 5 stars.  Toilet got clogged in middle of the night and had to ask for plunger.  Communal toilet on first floor also has very weak flush and pressure.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night for business.  It took about 30 minutes from the airport on a Monday afternoon.This property was new and service was excellent.  In the evening, they even had a social event where they offered free alcohol and food.Pros:Very clean and newComfortable room, full kitchen4 HBO channelsFast, reliable WIFIQuiet areaPlenty of parkingGreat service – all of staff was very friendlyCons:Kitchen did not come with cutting board.  Knives are provided thoughToilets are weak and below average.  This is the only reason for giving it less than 5 stars.  Toilet got clogged in middle of the night and had to ask for plunger.  Communal toilet on first floor also has very weak flush and pressure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r594044495-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>594044495</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in June prior to starting a road trip to Yellowstone!Arrived in a storm but had a great welcome from hotel staff.Nice and easy to find hotel from airport. Lovely suite and one of the best bathrooms we've seen in a hotel!Near a shopping mall and restaurants.Would definitely recommend and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in June prior to starting a road trip to Yellowstone!Arrived in a storm but had a great welcome from hotel staff.Nice and easy to find hotel from airport. Lovely suite and one of the best bathrooms we've seen in a hotel!Near a shopping mall and restaurants.Would definitely recommend and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r586825654-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586825654</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel and location</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel from 6/5/18 to 6/9/18. First of all this is a nice hotel. The staff were good. The breakfast buffet area was good and the room was excellent (1 Bedroom Suite). We were on the first floor in a room that was next to the main street North Central Park Blvd. First, I must say it was quite noisy in the evening with the traffic outside. It sometimes sounded like a drag strip outside. Second, The room had 2 excellent TV's but only 1 remote. Third, The WiFi was terrible. It was very slow. Finally, I've never been in a hotel without destination literature for the guest. I was surprised to see this. We had to go to the Visitor Center in Denver for literature on sites. Other than that this is a very good hotel with excellent staff. I realize its also new so maybe some of the bugs still have to be worked out.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded June 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel from 6/5/18 to 6/9/18. First of all this is a nice hotel. The staff were good. The breakfast buffet area was good and the room was excellent (1 Bedroom Suite). We were on the first floor in a room that was next to the main street North Central Park Blvd. First, I must say it was quite noisy in the evening with the traffic outside. It sometimes sounded like a drag strip outside. Second, The room had 2 excellent TV's but only 1 remote. Third, The WiFi was terrible. It was very slow. Finally, I've never been in a hotel without destination literature for the guest. I was surprised to see this. We had to go to the Visitor Center in Denver for literature on sites. Other than that this is a very good hotel with excellent staff. I realize its also new so maybe some of the bugs still have to be worked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r583025000-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>583025000</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>A Very Nice New Hotel</t>
+  </si>
+  <si>
+    <t>This Residence inn is nearly new and exceptionally well run.  The rooms are spacious, well appointed and clean.  The staff very helpful and pleasant.It is well sited near Interstate Hwy 70 and has ample parking.A nearby shopping area provides for restaurants and shopping.We were very well pleased with this Marriott.One warning; the luggage carts are awful and although they carry little are prone to spill possessions.  This minor negative is out of character for such a superior hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>This Residence inn is nearly new and exceptionally well run.  The rooms are spacious, well appointed and clean.  The staff very helpful and pleasant.It is well sited near Interstate Hwy 70 and has ample parking.A nearby shopping area provides for restaurants and shopping.We were very well pleased with this Marriott.One warning; the luggage carts are awful and although they carry little are prone to spill possessions.  This minor negative is out of character for such a superior hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r577959808-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>577959808</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights while working in the area. It was super comfortable and the staff attentive and very friendly. Morning breakfast was pretty standard fare but it was all hot and ready on opening. The evening mix was really great too. Would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights while working in the area. It was super comfortable and the staff attentive and very friendly. Morning breakfast was pretty standard fare but it was all hot and ready on opening. The evening mix was really great too. Would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r567688785-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>567688785</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Very new hotel, nice rooms, and clean.  Good location, close to the highway and also shopping/eating places within a short walk or drive up the road.  Nightly managers special gathering for free food/drinks.  Only downside - no stand-alone restaurant or bar to eat/drink.  I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Very new hotel, nice rooms, and clean.  Good location, close to the highway and also shopping/eating places within a short walk or drive up the road.  Nightly managers special gathering for free food/drinks.  Only downside - no stand-alone restaurant or bar to eat/drink.  I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r563470198-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>563470198</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Stapleton Residence Inn</t>
+  </si>
+  <si>
+    <t>We decided to stay at the Residence Inn Denver Stapleton for the weekend while attending events in the area.  This is a new build in a new area.  When pulling up to the property the entrance is not obvious, at least not to me.  The building is a modular design with the entrance at a 90 degree angle to the parking lot.  When checking in the lobby was so loud it was difficult to have a conversation with the front desk clerk.  My one bedroom suite was modern and comfortable, few minor issues.  I thought it was interesting that they offered regular cable or you can login to Hulu and other internet TV providers if you have an account but the internet was so poor the system constantly buffered which made the experience frustration. Make sure you logout your internet TV accounts  before you leave. Lastly someone put an orange cone on the back of the bed of my truck.  I assume it stuck out too far???  Overall decent stay at the Stapleton Residence Inn with issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean K, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded March 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2018</t>
+  </si>
+  <si>
+    <t>We decided to stay at the Residence Inn Denver Stapleton for the weekend while attending events in the area.  This is a new build in a new area.  When pulling up to the property the entrance is not obvious, at least not to me.  The building is a modular design with the entrance at a 90 degree angle to the parking lot.  When checking in the lobby was so loud it was difficult to have a conversation with the front desk clerk.  My one bedroom suite was modern and comfortable, few minor issues.  I thought it was interesting that they offered regular cable or you can login to Hulu and other internet TV providers if you have an account but the internet was so poor the system constantly buffered which made the experience frustration. Make sure you logout your internet TV accounts  before you leave. Lastly someone put an orange cone on the back of the bed of my truck.  I assume it stuck out too far???  Overall decent stay at the Stapleton Residence Inn with issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r558564269-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>558564269</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Wonderful new and clean hotel with good service</t>
+  </si>
+  <si>
+    <t>Loved the stay here wish i could of extended the stay. Very friendly front desk service. Got a great end of the floor room with a decent view and extremely clean, tidy and comfortable room. Can't imagine much better than this for the design with comfort and convenience in mind. Plenty of nearby eateries, although beware they close early even on weekends the choices after 9 pm were limited, but that may not be relevant for everyone. In any case highly recommended to stay here when in area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Loved the stay here wish i could of extended the stay. Very friendly front desk service. Got a great end of the floor room with a decent view and extremely clean, tidy and comfortable room. Can't imagine much better than this for the design with comfort and convenience in mind. Plenty of nearby eateries, although beware they close early even on weekends the choices after 9 pm were limited, but that may not be relevant for everyone. In any case highly recommended to stay here when in area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r537665959-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>537665959</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Unprofessional attitude</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on 4th October 2017. We booked a king bed room . We checked in at late time and after going to the Room discovered that they have assigned us two double beds . They didn't tell us this thing at the time of checkin. I went to the front desk and requested a King room what I booked . They rejected my request and told that they would give us 5000 points as bonus as a compensation. This promise is totally false .They have added no points at all . Being a valued Marriott member this attitude is not acceptable .MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on 4th October 2017. We booked a king bed room . We checked in at late time and after going to the Room discovered that they have assigned us two double beds . They didn't tell us this thing at the time of checkin. I went to the front desk and requested a King room what I booked . They rejected my request and told that they would give us 5000 points as bonus as a compensation. This promise is totally false .They have added no points at all . Being a valued Marriott member this attitude is not acceptable .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r532025163-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532025163</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>We had an early flight in to Denver. Knowing that check in was not until later in the afternoon, I had contacted the property about the possibility of leaving our bags there while we went into town to sight see. I got a quick professional response from the manager letting us know that they could hold our baggage until we checked in. He also gave us good information on the local bus and commuter rail system so we did not have to deal with traffic and parking. Upon arrival (~6 hours before checkin) the manager was able to get us a room, so we were able to get washed up after our flight. The hotel itself was new and clean and quiet. The room was well laid out with plenty of outlets for charging electronics etc. The hotel is also near shopping and only one bus stop away from the commuter rail station. For less than the price of parking downtown ($10.40 total), two of us were able to take the bus from right outside the hotel (on 3 different routes, so very short wait) to the rail station 1 mile away and then straight to Union Station downtown. Then after dinner and drinks etc, an easy ride back without the worries of parking, traffic or driving. Breakfast was good and no issues checking out. Highly recommend this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>We had an early flight in to Denver. Knowing that check in was not until later in the afternoon, I had contacted the property about the possibility of leaving our bags there while we went into town to sight see. I got a quick professional response from the manager letting us know that they could hold our baggage until we checked in. He also gave us good information on the local bus and commuter rail system so we did not have to deal with traffic and parking. Upon arrival (~6 hours before checkin) the manager was able to get us a room, so we were able to get washed up after our flight. The hotel itself was new and clean and quiet. The room was well laid out with plenty of outlets for charging electronics etc. The hotel is also near shopping and only one bus stop away from the commuter rail station. For less than the price of parking downtown ($10.40 total), two of us were able to take the bus from right outside the hotel (on 3 different routes, so very short wait) to the rail station 1 mile away and then straight to Union Station downtown. Then after dinner and drinks etc, an easy ride back without the worries of parking, traffic or driving. Breakfast was good and no issues checking out. Highly recommend this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r530343029-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>530343029</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay With Great Friendly Staff</t>
+  </si>
+  <si>
+    <t>It was our last night in Colorado and the hotel is conveniently close to the airport.Upon check-in we were greeted by the general manager, Peter Wenzell.He was extremely friendly and we had a great conversation about our hometown , NYC.He made sure our stay was perfect, even calling us once we got to the room to make sure everything was exactly to our liking.The rooms are brand new and very hitech, lots of outlets for chargers, etc.Beautifully laid out and comfortable, great kitchen, comfortable beds and lovely living area. Everything was very clean especially the kitchen and bathroom.The delicious breakfast was a great start for our long day of flying back home.Stapleton is a wonderful area, brand new with great shops and restaurants.All within a short distance from the hotel.The Monday night mixer was a nice way of getting to know your fellow travelers and fingers foods along with craft beer and wine were serve.All around a great experience MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>It was our last night in Colorado and the hotel is conveniently close to the airport.Upon check-in we were greeted by the general manager, Peter Wenzell.He was extremely friendly and we had a great conversation about our hometown , NYC.He made sure our stay was perfect, even calling us once we got to the room to make sure everything was exactly to our liking.The rooms are brand new and very hitech, lots of outlets for chargers, etc.Beautifully laid out and comfortable, great kitchen, comfortable beds and lovely living area. Everything was very clean especially the kitchen and bathroom.The delicious breakfast was a great start for our long day of flying back home.Stapleton is a wonderful area, brand new with great shops and restaurants.All within a short distance from the hotel.The Monday night mixer was a nice way of getting to know your fellow travelers and fingers foods along with craft beer and wine were serve.All around a great experience More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r528311946-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>528311946</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Great location in the heart of Stapleton</t>
+  </si>
+  <si>
+    <t>This recently built hotel was in the perfect location. Quick walk to many restaurants and boutique shopping. Breakfast typical for this type of hotel but sufficient. Friendly staff. Clean rooms with space to sprawl make this a nice option for business travel. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2017</t>
+  </si>
+  <si>
+    <t>This recently built hotel was in the perfect location. Quick walk to many restaurants and boutique shopping. Breakfast typical for this type of hotel but sufficient. Friendly staff. Clean rooms with space to sprawl make this a nice option for business travel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r524284031-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>524284031</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New &amp; LOCATION, LOCATION! </t>
+  </si>
+  <si>
+    <t>My kids (ages 6, 16) and I stayed here while on a cathartic road trip after my husband died. We had a fantastic stay! The area is new, and this location is new and right off the interstate 70. You are also within walking distance and a 2 minute drive, from restaurants, a movie theatre and shops (i.e. Target, Macy's, Gameworks, Sushi, Texas de Brazil, Starbucks etc). The accommodations itself were great! The bed was very comfy, great kitchenette, bathroom, and lots of storage, laundry facilities, indoor pool, outdoor basketball &amp; fire pit area. The staff was also super friendly! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded September 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2017</t>
+  </si>
+  <si>
+    <t>My kids (ages 6, 16) and I stayed here while on a cathartic road trip after my husband died. We had a fantastic stay! The area is new, and this location is new and right off the interstate 70. You are also within walking distance and a 2 minute drive, from restaurants, a movie theatre and shops (i.e. Target, Macy's, Gameworks, Sushi, Texas de Brazil, Starbucks etc). The accommodations itself were great! The bed was very comfy, great kitchenette, bathroom, and lots of storage, laundry facilities, indoor pool, outdoor basketball &amp; fire pit area. The staff was also super friendly! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r520765895-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>520765895</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Great stay, convienent, professional staff and nice rooms</t>
+  </si>
+  <si>
+    <t>My son and I stayed at the hotel on a college visit to the Denver area. The hotel is brand new and our suite was very comfortable and well designed. Staff were pleasant and professional. The location is very central for heading south to Colorado Springs, north to Boulder or 15 minutes to downtown Denver. Located right on I-70 (also if you a runner easy places to run in the morning heading north from the hotel)Overall a very pleasant stay with nice brand new facilities. Would definitely recommend the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>My son and I stayed at the hotel on a college visit to the Denver area. The hotel is brand new and our suite was very comfortable and well designed. Staff were pleasant and professional. The location is very central for heading south to Colorado Springs, north to Boulder or 15 minutes to downtown Denver. Located right on I-70 (also if you a runner easy places to run in the morning heading north from the hotel)Overall a very pleasant stay with nice brand new facilities. Would definitely recommend the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r515541039-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>515541039</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel staff was very accommodating </t>
+  </si>
+  <si>
+    <t>My wife and I plus our two sons 18 and 17 stayed for two nights and were upgraded the second night from a 1 br to a 2 br because we have Marriott gold status The staff was amazing they moved our packed stuff for us on day two while we were in boulder for the day The hotel is brand new and convenient to everything Highly recommended MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I plus our two sons 18 and 17 stayed for two nights and were upgraded the second night from a 1 br to a 2 br because we have Marriott gold status The staff was amazing they moved our packed stuff for us on day two while we were in boulder for the day The hotel is brand new and convenient to everything Highly recommended More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r515532462-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>515532462</t>
+  </si>
+  <si>
+    <t>excellent, excellent place to stay, especially after a long flight</t>
+  </si>
+  <si>
+    <t>stayed here after a long flight from Europe to Denver. Takes just 15 mins to get here and the room was outstanding , a suite with 2 beds, kitchenette, etc. It is definitely one of the best rooms I've had for similar hotels. Breakfast is the usual thing in these hotels. I'd stay again if need to stay overnight near Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>stayed here after a long flight from Europe to Denver. Takes just 15 mins to get here and the room was outstanding , a suite with 2 beds, kitchenette, etc. It is definitely one of the best rooms I've had for similar hotels. Breakfast is the usual thing in these hotels. I'd stay again if need to stay overnight near Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r513665567-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>513665567</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Nice, Newer Hotel 20-25 Minutes From Airport</t>
+  </si>
+  <si>
+    <t>This is one of the new model Residence Inn's with an indoor pool, outdoor basketball court and spacious eating area for the free breakfast.  There are gas stations about two miles away where you can top off your rental tank before heading the airport the next morning.  You're probably burning a gallon on the way to the drop-off, but not enough for the car not to show full.  The hotel staff was nice, the room was clean.  Hotel is very fresh.  A good stop for Marriott Club members flying out the next morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>This is one of the new model Residence Inn's with an indoor pool, outdoor basketball court and spacious eating area for the free breakfast.  There are gas stations about two miles away where you can top off your rental tank before heading the airport the next morning.  You're probably burning a gallon on the way to the drop-off, but not enough for the car not to show full.  The hotel staff was nice, the room was clean.  Hotel is very fresh.  A good stop for Marriott Club members flying out the next morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r510810739-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>510810739</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Why we would stay here again</t>
+  </si>
+  <si>
+    <t>I researched where to stay for the first couple of nights on our Colorado vacation for about an hour.  I found another hotel in the area of the Residence Inn and I'm glad I only booked that hotel for one night.  We ended up staying here the second night and I wish I found this hotel from the start.  It was fantastic.  Here are reasons that I would stay here again:- Location: Great location to the airport, freeway, mall, Restaurants (try Jim and Nick's), Movie Theatre and Super Target- Rooms:  They are great.  Bed was comfortable, clean and easy to hang out in with our family.  - Staff: Very friendly and helpful for questions on where to eat, etc.- Evening Snacks: It isn't a full meal because it isn't supposed to be.  We enjoyed the healthy offerings as well as cheese and crackers- Breakfast: Great breakfast that had a variety of hot/cold items.  - Pool: It is an adequate size and we hung out there for an hour in the morning.  Nicer than some of the 4 star hotels i have stayed at.Other than a minor snafu on our room not being ready at check-in, this was fantastic.  I highly recommend this hotel for business and personal travelers alike.  We hope to be back when we visit Colorado again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>I researched where to stay for the first couple of nights on our Colorado vacation for about an hour.  I found another hotel in the area of the Residence Inn and I'm glad I only booked that hotel for one night.  We ended up staying here the second night and I wish I found this hotel from the start.  It was fantastic.  Here are reasons that I would stay here again:- Location: Great location to the airport, freeway, mall, Restaurants (try Jim and Nick's), Movie Theatre and Super Target- Rooms:  They are great.  Bed was comfortable, clean and easy to hang out in with our family.  - Staff: Very friendly and helpful for questions on where to eat, etc.- Evening Snacks: It isn't a full meal because it isn't supposed to be.  We enjoyed the healthy offerings as well as cheese and crackers- Breakfast: Great breakfast that had a variety of hot/cold items.  - Pool: It is an adequate size and we hung out there for an hour in the morning.  Nicer than some of the 4 star hotels i have stayed at.Other than a minor snafu on our room not being ready at check-in, this was fantastic.  I highly recommend this hotel for business and personal travelers alike.  We hope to be back when we visit Colorado again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r509871391-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>509871391</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay about 20 minutes outside of downtown Denver</t>
+  </si>
+  <si>
+    <t>We were very skeptical staying here after reading some of the poor reviews about the housekeeping problems this hotel has had given they are new and appeared to be insufficiently staffed.  We decided to stay here in hopes that by the time we came, they will have gotten their act together.   Well....they definitely did!  Our room was actually ready EARLY (when we had asked for an early check in they did accommodate us!)Breakfasts were a bit hectic with loads of families with children...but the "host in charge" was terrific and tried to please everyone by constantly asking if we needed anything and if he could be of help.  This was a great touch to making you feel like a valued guest.The room was beautiful!  New is always good....the room was spacious, clean, great kitchen (we didn't really use), large bathroom, nice large couch and a work desk.The new hotel manager (Peter Wenzell) was actually helping out during breakfast and came over as well to see if our stay was meeting our expectations.  I complimented him on how his influence must be already felt if our room was ready early and that the staff was very attentive, friendly and helpful.Kudos to the staff here......a great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were very skeptical staying here after reading some of the poor reviews about the housekeeping problems this hotel has had given they are new and appeared to be insufficiently staffed.  We decided to stay here in hopes that by the time we came, they will have gotten their act together.   Well....they definitely did!  Our room was actually ready EARLY (when we had asked for an early check in they did accommodate us!)Breakfasts were a bit hectic with loads of families with children...but the "host in charge" was terrific and tried to please everyone by constantly asking if we needed anything and if he could be of help.  This was a great touch to making you feel like a valued guest.The room was beautiful!  New is always good....the room was spacious, clean, great kitchen (we didn't really use), large bathroom, nice large couch and a work desk.The new hotel manager (Peter Wenzell) was actually helping out during breakfast and came over as well to see if our stay was meeting our expectations.  I complimented him on how his influence must be already felt if our room was ready early and that the staff was very attentive, friendly and helpful.Kudos to the staff here......a great place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r509206127-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>509206127</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Great Property, Incredible Service</t>
+  </si>
+  <si>
+    <t>First off, prior to arrival I received an email from GM Peter Wenzell. He wanted to make sure that my daughter's stay would be exceptional. It was. My daughter was travelling to the East Coast for college. He welcomed her and wanted to do whatever necessary to make the stay positively memorable. An incredible touch. Unheralded. It was a great stop in Denver. They impeccably cared for her. For a father, could anything have been more important? When in Denver, I will go out of my to patronize this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>First off, prior to arrival I received an email from GM Peter Wenzell. He wanted to make sure that my daughter's stay would be exceptional. It was. My daughter was travelling to the East Coast for college. He welcomed her and wanted to do whatever necessary to make the stay positively memorable. An incredible touch. Unheralded. It was a great stop in Denver. They impeccably cared for her. For a father, could anything have been more important? When in Denver, I will go out of my to patronize this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r500399138-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>500399138</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>The good and the bad.</t>
+  </si>
+  <si>
+    <t>The good.  
+We arrived early the morning of our reservation for two rooms.  They said we were too early and volunteered to store our luggage saying we could come back at 4pm so we could check in.  We said no problem, we would come back that afternoon.  We appreciated them storing our luggage for the day.
+The rooms were new, roomy and nice. Stove, refrigerator, completely stocked kitchen for cooking. The king bed was very comfortable.  Very nice.  Everything is new at this hotel.
+Late afternoon happy hour in the lobby was good.  Free cheap beer, wine, ice cream and s'mores.  Wait staff was friendly and efficient for happy hour.
+The bad.
+Like I said they asked us to return at 4 pm so we could check in.  We came back at 5:30pm, 1 1/2 hour later than they said our rooms would be ready.  Only one room was ready.  They said it would be about 10 minutes till the 2nd room would be available.  I gave the one room key to the other couple and they went to their room.  My wife and I waited for the second room to become available.   We waited and waited.  Ten minutes turned into twenty, all the time my wife and I waiting in the lobby with our luggage.  It seemed the manager, Phillip, did not care if we got a room.  He was doing everything else but not even checking on things...The good.  We arrived early the morning of our reservation for two rooms.  They said we were too early and volunteered to store our luggage saying we could come back at 4pm so we could check in.  We said no problem, we would come back that afternoon.  We appreciated them storing our luggage for the day.The rooms were new, roomy and nice. Stove, refrigerator, completely stocked kitchen for cooking. The king bed was very comfortable.  Very nice.  Everything is new at this hotel.Late afternoon happy hour in the lobby was good.  Free cheap beer, wine, ice cream and s'mores.  Wait staff was friendly and efficient for happy hour.The bad.Like I said they asked us to return at 4 pm so we could check in.  We came back at 5:30pm, 1 1/2 hour later than they said our rooms would be ready.  Only one room was ready.  They said it would be about 10 minutes till the 2nd room would be available.  I gave the one room key to the other couple and they went to their room.  My wife and I waited for the second room to become available.   We waited and waited.  Ten minutes turned into twenty, all the time my wife and I waiting in the lobby with our luggage.  It seemed the manager, Phillip, did not care if we got a room.  He was doing everything else but not even checking on things for us.  We had to continually bug him to get updates.  It took 45 minutes before we were given a room key. A 10 minute wait turned into 45. We were pretty upset when we finally got into our room.The other couple said there was only one bath towel in their room.  We had four in ours. I think they are under staffed. Not the best experience, even though the rooms were nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>The good.  
+We arrived early the morning of our reservation for two rooms.  They said we were too early and volunteered to store our luggage saying we could come back at 4pm so we could check in.  We said no problem, we would come back that afternoon.  We appreciated them storing our luggage for the day.
+The rooms were new, roomy and nice. Stove, refrigerator, completely stocked kitchen for cooking. The king bed was very comfortable.  Very nice.  Everything is new at this hotel.
+Late afternoon happy hour in the lobby was good.  Free cheap beer, wine, ice cream and s'mores.  Wait staff was friendly and efficient for happy hour.
+The bad.
+Like I said they asked us to return at 4 pm so we could check in.  We came back at 5:30pm, 1 1/2 hour later than they said our rooms would be ready.  Only one room was ready.  They said it would be about 10 minutes till the 2nd room would be available.  I gave the one room key to the other couple and they went to their room.  My wife and I waited for the second room to become available.   We waited and waited.  Ten minutes turned into twenty, all the time my wife and I waiting in the lobby with our luggage.  It seemed the manager, Phillip, did not care if we got a room.  He was doing everything else but not even checking on things...The good.  We arrived early the morning of our reservation for two rooms.  They said we were too early and volunteered to store our luggage saying we could come back at 4pm so we could check in.  We said no problem, we would come back that afternoon.  We appreciated them storing our luggage for the day.The rooms were new, roomy and nice. Stove, refrigerator, completely stocked kitchen for cooking. The king bed was very comfortable.  Very nice.  Everything is new at this hotel.Late afternoon happy hour in the lobby was good.  Free cheap beer, wine, ice cream and s'mores.  Wait staff was friendly and efficient for happy hour.The bad.Like I said they asked us to return at 4 pm so we could check in.  We came back at 5:30pm, 1 1/2 hour later than they said our rooms would be ready.  Only one room was ready.  They said it would be about 10 minutes till the 2nd room would be available.  I gave the one room key to the other couple and they went to their room.  My wife and I waited for the second room to become available.   We waited and waited.  Ten minutes turned into twenty, all the time my wife and I waiting in the lobby with our luggage.  It seemed the manager, Phillip, did not care if we got a room.  He was doing everything else but not even checking on things for us.  We had to continually bug him to get updates.  It took 45 minutes before we were given a room key. A 10 minute wait turned into 45. We were pretty upset when we finally got into our room.The other couple said there was only one bath towel in their room.  We had four in ours. I think they are under staffed. Not the best experience, even though the rooms were nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r499733875-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>499733875</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Disappointing </t>
+  </si>
+  <si>
+    <t>We had high expectations since this place was brand new and the rooms had full kitchens. It was also close to lots of attractions and a beautiful mall. We left out resort in Vail and arrived at Residence Inn at 12:45. The check-in was 4pm. No rooms were available or ready so my wife asked for a phone call when our room was ready. We thought we could use the time in the nearby mall. The receptionist was rude and unwilling to do that. She handed my wife a business card and said that my wife needed to call to check on the readiness of the room. She added that she was too busy and that we were welcome to wait in the lobby. Almost 2 hours later she offered us a room on the third floor but we asked for the highest floor to have some peace of mind and avoid noisy people above us (which is always a high probability). It was almost 3:30 and that employee was clocking out. I talked to two female and male employees that were just starting their shift if it was okay for a staff person to give a customer a phone call regarding the readiness of the room and both said they were fine calling. They both searched for a room on the 4th floor. They called for a rush on the cleaning of the room and we got in. We...We had high expectations since this place was brand new and the rooms had full kitchens. It was also close to lots of attractions and a beautiful mall. We left out resort in Vail and arrived at Residence Inn at 12:45. The check-in was 4pm. No rooms were available or ready so my wife asked for a phone call when our room was ready. We thought we could use the time in the nearby mall. The receptionist was rude and unwilling to do that. She handed my wife a business card and said that my wife needed to call to check on the readiness of the room. She added that she was too busy and that we were welcome to wait in the lobby. Almost 2 hours later she offered us a room on the third floor but we asked for the highest floor to have some peace of mind and avoid noisy people above us (which is always a high probability). It was almost 3:30 and that employee was clocking out. I talked to two female and male employees that were just starting their shift if it was okay for a staff person to give a customer a phone call regarding the readiness of the room and both said they were fine calling. They both searched for a room on the 4th floor. They called for a rush on the cleaning of the room and we got in. We also talked to the manager is assistant manager who apologized and tried to help us with the check-in. Once in the room we found a nice kitchen with full size fridge and an electrical stove that did not work (so we used the microwave). We found out the next morning that everything we had in the fridge (fruits, water, etc.) was frozen because someone left the fridge on the wrong setting. We threw everything else as we were close to checking out. More unpleasant surprises: the shower water never reached a comfortable hot temperature; there was no shampoo so we used our own; and when we wanted to put our clothes in the bedroom drawer we found a female underwear with one bar of soap and small shampoo (we promptly returned those to an apologetic and embarrassed staff). This Residence Inn has potential but some staff members do not take their jobs seriously enough and should not be in the hospitality business. They need to be retrained and re educated or just find something else to do other than ruining someone else's day or vacation. I will call or write to headquarters to file an official complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had high expectations since this place was brand new and the rooms had full kitchens. It was also close to lots of attractions and a beautiful mall. We left out resort in Vail and arrived at Residence Inn at 12:45. The check-in was 4pm. No rooms were available or ready so my wife asked for a phone call when our room was ready. We thought we could use the time in the nearby mall. The receptionist was rude and unwilling to do that. She handed my wife a business card and said that my wife needed to call to check on the readiness of the room. She added that she was too busy and that we were welcome to wait in the lobby. Almost 2 hours later she offered us a room on the third floor but we asked for the highest floor to have some peace of mind and avoid noisy people above us (which is always a high probability). It was almost 3:30 and that employee was clocking out. I talked to two female and male employees that were just starting their shift if it was okay for a staff person to give a customer a phone call regarding the readiness of the room and both said they were fine calling. They both searched for a room on the 4th floor. They called for a rush on the cleaning of the room and we got in. We...We had high expectations since this place was brand new and the rooms had full kitchens. It was also close to lots of attractions and a beautiful mall. We left out resort in Vail and arrived at Residence Inn at 12:45. The check-in was 4pm. No rooms were available or ready so my wife asked for a phone call when our room was ready. We thought we could use the time in the nearby mall. The receptionist was rude and unwilling to do that. She handed my wife a business card and said that my wife needed to call to check on the readiness of the room. She added that she was too busy and that we were welcome to wait in the lobby. Almost 2 hours later she offered us a room on the third floor but we asked for the highest floor to have some peace of mind and avoid noisy people above us (which is always a high probability). It was almost 3:30 and that employee was clocking out. I talked to two female and male employees that were just starting their shift if it was okay for a staff person to give a customer a phone call regarding the readiness of the room and both said they were fine calling. They both searched for a room on the 4th floor. They called for a rush on the cleaning of the room and we got in. We also talked to the manager is assistant manager who apologized and tried to help us with the check-in. Once in the room we found a nice kitchen with full size fridge and an electrical stove that did not work (so we used the microwave). We found out the next morning that everything we had in the fridge (fruits, water, etc.) was frozen because someone left the fridge on the wrong setting. We threw everything else as we were close to checking out. More unpleasant surprises: the shower water never reached a comfortable hot temperature; there was no shampoo so we used our own; and when we wanted to put our clothes in the bedroom drawer we found a female underwear with one bar of soap and small shampoo (we promptly returned those to an apologetic and embarrassed staff). This Residence Inn has potential but some staff members do not take their jobs seriously enough and should not be in the hospitality business. They need to be retrained and re educated or just find something else to do other than ruining someone else's day or vacation. I will call or write to headquarters to file an official complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r498840460-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>498840460</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, NOT clean!!</t>
+  </si>
+  <si>
+    <t>While the staff was extremely friendly, especially the gentlemen working the breakfast (although what breakfast has cereal but no milk), our room was filthy. Dirty bathroom sinks, food in the sink in the kitchenette, dirty dishes in the dishwasher and dirty dishes put away in the cupboard, dirty and sticky floors, and food spilled all over refrigerator. I'm really hoping the sheets were clean even though it looked as though someone had been laying on the bed. This location just opened but they need a new housekeeping staff already!MoreShow less</t>
+  </si>
+  <si>
+    <t>While the staff was extremely friendly, especially the gentlemen working the breakfast (although what breakfast has cereal but no milk), our room was filthy. Dirty bathroom sinks, food in the sink in the kitchenette, dirty dishes in the dishwasher and dirty dishes put away in the cupboard, dirty and sticky floors, and food spilled all over refrigerator. I'm really hoping the sheets were clean even though it looked as though someone had been laying on the bed. This location just opened but they need a new housekeeping staff already!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r492075219-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>492075219</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top notch staff and accommodating </t>
+  </si>
+  <si>
+    <t>We were among the first guests at this brand new hotel,  arriving on it's second day of operation.  The hotel was perfectly ready and the staff extremely well trained in hospitality.  We highly recommend it.  The free breakfast is really excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>We were among the first guests at this brand new hotel,  arriving on it's second day of operation.  The hotel was perfectly ready and the staff extremely well trained in hospitality.  We highly recommend it.  The free breakfast is really excellent.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1166,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1198,1678 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>195</v>
+      </c>
+      <c r="X19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>217</v>
+      </c>
+      <c r="X22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>226</v>
+      </c>
+      <c r="X25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>246</v>
+      </c>
+      <c r="X26" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_235.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_235.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,152 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r609252413-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>12156898</t>
+  </si>
+  <si>
+    <t>609252413</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Haven’t Eaten in Days</t>
+  </si>
+  <si>
+    <t>I never write reviews and rarely even complain about a business or service; however, what this hotel is doing to me is almost criminal.  I had gone to check in Sunday night and was told that I could not use the company card on file.  I asked if I could just put down my card for one night and they said I had to do the full four or I would lose my reservation.  They charged $800 to my debit card but told me I’d have it back the next day.  They have held all my funds hostage and it is now Wednesday and I still have nothing.  I have told them that I can’t even eat because that was all my money but they still have done nothing.  I was told that they would call the bank and tell them to release the pending charges...nothing.  The only food I’ve had to eat was the breakfast they provide and the 6 protein bars I brought with me.  I have received no kind of compensation, just an apology and hopes that I enjoy the rest of my stay.  If you’re a business man or woman, I suggest another hotel for Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Brian V, Front Office Manager at Residence Inn Denver Stapleton, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I never write reviews and rarely even complain about a business or service; however, what this hotel is doing to me is almost criminal.  I had gone to check in Sunday night and was told that I could not use the company card on file.  I asked if I could just put down my card for one night and they said I had to do the full four or I would lose my reservation.  They charged $800 to my debit card but told me I’d have it back the next day.  They have held all my funds hostage and it is now Wednesday and I still have nothing.  I have told them that I can’t even eat because that was all my money but they still have done nothing.  I was told that they would call the bank and tell them to release the pending charges...nothing.  The only food I’ve had to eat was the breakfast they provide and the 6 protein bars I brought with me.  I have received no kind of compensation, just an apology and hopes that I enjoy the rest of my stay.  If you’re a business man or woman, I suggest another hotel for Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r607810868-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>607810868</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>OK Hotel</t>
+  </si>
+  <si>
+    <t>Overall the hotel and the facilities are nice.  The location is ideal being next to a very large shopping center as well as the highway.  The airport is close as well.  The pool area is your standard for a Residence Inn.  Breakfast was also your typical Residence Inn style.
+Also there is a lot of construction in the immediate area.  I know that is not long term, but depending on your room location you could have construction workers looking directly into your room, so you'll end up keeping the blinds closed.
+They lost a lot of points and our loyalty for their inadequate handling of reservations.  Our traveling companions were originally bumped because the property management saw higher profits in accommodating insurance adjusters traveling last minute than they did for a family traveling with young children.  And on top of that they will bump you without comparable accommodations at another nearby Marriott property.  This is your typical greed over customer service model.  Businesses should find a balance between profits and customer service.  Clearly this property prioritizes profits before customers.  Sooner or later if your customer service is inferior you start to lose those customers along with your profits.
+Luckily for our travel companions I am Marriott Platinum, so they were able to have their reservation reinstated.  Unfortunately all this hotel did was bump another family instead.
+I would not recommend staying in this property and we have no intentions on...Overall the hotel and the facilities are nice.  The location is ideal being next to a very large shopping center as well as the highway.  The airport is close as well.  The pool area is your standard for a Residence Inn.  Breakfast was also your typical Residence Inn style.Also there is a lot of construction in the immediate area.  I know that is not long term, but depending on your room location you could have construction workers looking directly into your room, so you'll end up keeping the blinds closed.They lost a lot of points and our loyalty for their inadequate handling of reservations.  Our traveling companions were originally bumped because the property management saw higher profits in accommodating insurance adjusters traveling last minute than they did for a family traveling with young children.  And on top of that they will bump you without comparable accommodations at another nearby Marriott property.  This is your typical greed over customer service model.  Businesses should find a balance between profits and customer service.  Clearly this property prioritizes profits before customers.  Sooner or later if your customer service is inferior you start to lose those customers along with your profits.Luckily for our travel companions I am Marriott Platinum, so they were able to have their reservation reinstated.  Unfortunately all this hotel did was bump another family instead.I would not recommend staying in this property and we have no intentions on returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Overall the hotel and the facilities are nice.  The location is ideal being next to a very large shopping center as well as the highway.  The airport is close as well.  The pool area is your standard for a Residence Inn.  Breakfast was also your typical Residence Inn style.
+Also there is a lot of construction in the immediate area.  I know that is not long term, but depending on your room location you could have construction workers looking directly into your room, so you'll end up keeping the blinds closed.
+They lost a lot of points and our loyalty for their inadequate handling of reservations.  Our traveling companions were originally bumped because the property management saw higher profits in accommodating insurance adjusters traveling last minute than they did for a family traveling with young children.  And on top of that they will bump you without comparable accommodations at another nearby Marriott property.  This is your typical greed over customer service model.  Businesses should find a balance between profits and customer service.  Clearly this property prioritizes profits before customers.  Sooner or later if your customer service is inferior you start to lose those customers along with your profits.
+Luckily for our travel companions I am Marriott Platinum, so they were able to have their reservation reinstated.  Unfortunately all this hotel did was bump another family instead.
+I would not recommend staying in this property and we have no intentions on...Overall the hotel and the facilities are nice.  The location is ideal being next to a very large shopping center as well as the highway.  The airport is close as well.  The pool area is your standard for a Residence Inn.  Breakfast was also your typical Residence Inn style.Also there is a lot of construction in the immediate area.  I know that is not long term, but depending on your room location you could have construction workers looking directly into your room, so you'll end up keeping the blinds closed.They lost a lot of points and our loyalty for their inadequate handling of reservations.  Our traveling companions were originally bumped because the property management saw higher profits in accommodating insurance adjusters traveling last minute than they did for a family traveling with young children.  And on top of that they will bump you without comparable accommodations at another nearby Marriott property.  This is your typical greed over customer service model.  Businesses should find a balance between profits and customer service.  Clearly this property prioritizes profits before customers.  Sooner or later if your customer service is inferior you start to lose those customers along with your profits.Luckily for our travel companions I am Marriott Platinum, so they were able to have their reservation reinstated.  Unfortunately all this hotel did was bump another family instead.I would not recommend staying in this property and we have no intentions on returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r605447618-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>605447618</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Nice and new, good stay</t>
+  </si>
+  <si>
+    <t>I stayed 1 night at this hotel and being a marriott member I was pleased with the overall stay. This was a 20K points stay so I was not sure what level to expect. The hotel was well maintained and the staff was nice for checkin which was late in the evening 8:30 pm.  Nice room (King suite) and clean. Lots of room, quiet, and all that I needed for the short stay I had. Morning came and the hot breckfast was excellent. The best I have had for a long time. The ladies that ran that morning  food service were the best. I had all my needs for food and drink in the morning taken care of by them. Being a LONG time Marriott member I was impressed. I will go there if I am ever in the area again.  I was at the near-by Denver UC Hospital for a family member's brain surgery so a worry-free stay was important. Thank you Residence Inn Denver Stapleton.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 1 night at this hotel and being a marriott member I was pleased with the overall stay. This was a 20K points stay so I was not sure what level to expect. The hotel was well maintained and the staff was nice for checkin which was late in the evening 8:30 pm.  Nice room (King suite) and clean. Lots of room, quiet, and all that I needed for the short stay I had. Morning came and the hot breckfast was excellent. The best I have had for a long time. The ladies that ran that morning  food service were the best. I had all my needs for food and drink in the morning taken care of by them. Being a LONG time Marriott member I was impressed. I will go there if I am ever in the area again.  I was at the near-by Denver UC Hospital for a family member's brain surgery so a worry-free stay was important. Thank you Residence Inn Denver Stapleton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r602271071-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>602271071</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Excellent place to stay with a family of five</t>
+  </si>
+  <si>
+    <t>I stayed here with my wife and three kids (ages 9, 8, and 5) in the 2 queen bed suite.  The room was a very good size and the full kitchen was wonderful!  The hotel is in a newly developed area of Denver.  The breakfast is very good (with two types of breakfast meats), eggs, waffles, toast, pastries, oatmeal, fruit, yogurt, juices, etc.  The serving room is spacious so that folks are not bumping into each other, and the dining room is also spacious.  The afternoon happy hour with complimentary beer and wine is fantastic, but unfortunately it's only available from Monday through Wednesday.  I hope the hotel will consider expanding the happy hour for the entire week. The pool and hot tub are nice.  The laundry room was clean and accessible.  There is a Super Target within a 5 minute drive from the hotel as well as other shots and restaurants.  The rooms at this hotel are clean and modern.  I would absolutely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed here with my wife and three kids (ages 9, 8, and 5) in the 2 queen bed suite.  The room was a very good size and the full kitchen was wonderful!  The hotel is in a newly developed area of Denver.  The breakfast is very good (with two types of breakfast meats), eggs, waffles, toast, pastries, oatmeal, fruit, yogurt, juices, etc.  The serving room is spacious so that folks are not bumping into each other, and the dining room is also spacious.  The afternoon happy hour with complimentary beer and wine is fantastic, but unfortunately it's only available from Monday through Wednesday.  I hope the hotel will consider expanding the happy hour for the entire week. The pool and hot tub are nice.  The laundry room was clean and accessible.  There is a Super Target within a 5 minute drive from the hotel as well as other shots and restaurants.  The rooms at this hotel are clean and modern.  I would absolutely stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r599693209-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>599693209</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Exceptional staff-gorgeous facility</t>
+  </si>
+  <si>
+    <t>Beautiful facility &amp; accommodations but the STAFF made this hotel EXCEPTIONAL!Starting with a young man named Tristian, who made sure our room was ready for early check-in &amp; cleaned to hypoallergenic standards, then met Stephanie who is operational manager but changed pillows out herself.So friendly&amp; pleasant. And then met Melissa when extending stay extra night, she was also very welcoming,pleasant &amp; helpfulMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Beautiful facility &amp; accommodations but the STAFF made this hotel EXCEPTIONAL!Starting with a young man named Tristian, who made sure our room was ready for early check-in &amp; cleaned to hypoallergenic standards, then met Stephanie who is operational manager but changed pillows out herself.So friendly&amp; pleasant. And then met Melissa when extending stay extra night, she was also very welcoming,pleasant &amp; helpfulMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r595868810-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
   </si>
   <si>
-    <t>33388</t>
-  </si>
-  <si>
-    <t>12156898</t>
-  </si>
-  <si>
     <t>595868810</t>
   </si>
   <si>
@@ -171,16 +305,13 @@
     <t>This was my birthday weekend, and it turned out to be even more special because my daughter became engaged to be married that evening. The wrong staff member could have ruined our stay, but you have a wonderful staff manager in Melissa, who helped us all the way and treated us, and other guests wonderfully. Melissa needs to be rewarded, as well as DeJuan (DJ), who in advance of our visit talked to me by phone several times to assure us of your amenities and clarify our stay, and then helped the morning of our stay as well. The negative was that I stepped barefoot on broken glass and a piece went into my foot. We didn't have a bathtub in our room (our fault for not asking), and since my husband and I have severe muscle pain, we planned to use the whirlpool. Well, in the morning, I went to the whirlpool first and, while enjoying it, stepped on glass in the water. I brought it to the attention of a custodian and DeJuan, who kindly came to see where it was and promised to have the whirlpool drained and cleaned, and asked if I was alright. I gave him a coffee cup with the glass on it. I also emailed the GM, Rachel, who apologized and updated me and offered me a discount on a future stay, although I was hoping to be compensated a day so that...This was my birthday weekend, and it turned out to be even more special because my daughter became engaged to be married that evening. The wrong staff member could have ruined our stay, but you have a wonderful staff manager in Melissa, who helped us all the way and treated us, and other guests wonderfully. Melissa needs to be rewarded, as well as DeJuan (DJ), who in advance of our visit talked to me by phone several times to assure us of your amenities and clarify our stay, and then helped the morning of our stay as well. The negative was that I stepped barefoot on broken glass and a piece went into my foot. We didn't have a bathtub in our room (our fault for not asking), and since my husband and I have severe muscle pain, we planned to use the whirlpool. Well, in the morning, I went to the whirlpool first and, while enjoying it, stepped on glass in the water. I brought it to the attention of a custodian and DeJuan, who kindly came to see where it was and promised to have the whirlpool drained and cleaned, and asked if I was alright. I gave him a coffee cup with the glass on it. I also emailed the GM, Rachel, who apologized and updated me and offered me a discount on a future stay, although I was hoping to be compensated a day so that my husband could also enjoy the whirlpool. That was the only negative. The breakfast staff were also friendly and amazing. We'll visit again.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded July 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2018</t>
   </si>
   <si>
     <t>This was my birthday weekend, and it turned out to be even more special because my daughter became engaged to be married that evening. The wrong staff member could have ruined our stay, but you have a wonderful staff manager in Melissa, who helped us all the way and treated us, and other guests wonderfully. Melissa needs to be rewarded, as well as DeJuan (DJ), who in advance of our visit talked to me by phone several times to assure us of your amenities and clarify our stay, and then helped the morning of our stay as well. The negative was that I stepped barefoot on broken glass and a piece went into my foot. We didn't have a bathtub in our room (our fault for not asking), and since my husband and I have severe muscle pain, we planned to use the whirlpool. Well, in the morning, I went to the whirlpool first and, while enjoying it, stepped on glass in the water. I brought it to the attention of a custodian and DeJuan, who kindly came to see where it was and promised to have the whirlpool drained and cleaned, and asked if I was alright. I gave him a coffee cup with the glass on it. I also emailed the GM, Rachel, who apologized and updated me and offered me a discount on a future stay, although I was hoping to be compensated a day so that...This was my birthday weekend, and it turned out to be even more special because my daughter became engaged to be married that evening. The wrong staff member could have ruined our stay, but you have a wonderful staff manager in Melissa, who helped us all the way and treated us, and other guests wonderfully. Melissa needs to be rewarded, as well as DeJuan (DJ), who in advance of our visit talked to me by phone several times to assure us of your amenities and clarify our stay, and then helped the morning of our stay as well. The negative was that I stepped barefoot on broken glass and a piece went into my foot. We didn't have a bathtub in our room (our fault for not asking), and since my husband and I have severe muscle pain, we planned to use the whirlpool. Well, in the morning, I went to the whirlpool first and, while enjoying it, stepped on glass in the water. I brought it to the attention of a custodian and DeJuan, who kindly came to see where it was and promised to have the whirlpool drained and cleaned, and asked if I was alright. I gave him a coffee cup with the glass on it. I also emailed the GM, Rachel, who apologized and updated me and offered me a discount on a future stay, although I was hoping to be compensated a day so that my husband could also enjoy the whirlpool. That was the only negative. The breakfast staff were also friendly and amazing. We'll visit again.More</t>
@@ -201,9 +332,6 @@
     <t>I stayed here for 1 night for business.  It took about 30 minutes from the airport on a Monday afternoon.This property was new and service was excellent.  In the evening, they even had a social event where they offered free alcohol and food.Pros:Very clean and newComfortable room, full kitchen4 HBO channelsFast, reliable WIFIQuiet areaPlenty of parkingGreat service – all of staff was very friendlyCons:Kitchen did not come with cutting board.  Knives are provided thoughToilets are weak and below average.  This is the only reason for giving it less than 5 stars.  Toilet got clogged in middle of the night and had to ask for plunger.  Communal toilet on first floor also has very weak flush and pressure.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I stayed here for 1 night for business.  It took about 30 minutes from the airport on a Monday afternoon.This property was new and service was excellent.  In the evening, they even had a social event where they offered free alcohol and food.Pros:Very clean and newComfortable room, full kitchen4 HBO channelsFast, reliable WIFIQuiet areaPlenty of parkingGreat service – all of staff was very friendlyCons:Kitchen did not come with cutting board.  Knives are provided thoughToilets are weak and below average.  This is the only reason for giving it less than 5 stars.  Toilet got clogged in middle of the night and had to ask for plunger.  Communal toilet on first floor also has very weak flush and pressure.More</t>
   </si>
   <si>
@@ -222,18 +350,63 @@
     <t>Stayed here for two nights in June prior to starting a road trip to Yellowstone!Arrived in a storm but had a great welcome from hotel staff.Nice and easy to find hotel from airport. Lovely suite and one of the best bathrooms we've seen in a hotel!Near a shopping mall and restaurants.Would definitely recommend and would stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
   </si>
   <si>
     <t>Stayed here for two nights in June prior to starting a road trip to Yellowstone!Arrived in a storm but had a great welcome from hotel staff.Nice and easy to find hotel from airport. Lovely suite and one of the best bathrooms we've seen in a hotel!Near a shopping mall and restaurants.Would definitely recommend and would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r592184277-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>592184277</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Was here for the Colorado Sparkler Sotball Tournament</t>
+  </si>
+  <si>
+    <t>Stayed 3 night - Nice new hotel, close to the Northfield Mall that had everything you needed to bring back to your room. Was in a a one-bedroom suite with 2 beds - good size bathroom. We didn't need maid service the first night but thought they would come the second night, but they didn't however the front desk person was very accommodating giving me all the things I needed; she was very helpful. They have good washers and dryers 2.00 for the wash, 1.75 for the dryer, a necessity when you are traveling for youth sports. Nice breakfast meat options; like turkey sausage, ham, regular sausage links. Marriott eggs are just not that could, we think powder or from the box. Lots of parking; easy freeway access. Lots of great food choices in the surrounding area. They always had cold, fruit infused water in the front readily available.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Stayed 3 night - Nice new hotel, close to the Northfield Mall that had everything you needed to bring back to your room. Was in a a one-bedroom suite with 2 beds - good size bathroom. We didn't need maid service the first night but thought they would come the second night, but they didn't however the front desk person was very accommodating giving me all the things I needed; she was very helpful. They have good washers and dryers 2.00 for the wash, 1.75 for the dryer, a necessity when you are traveling for youth sports. Nice breakfast meat options; like turkey sausage, ham, regular sausage links. Marriott eggs are just not that could, we think powder or from the box. Lots of parking; easy freeway access. Lots of great food choices in the surrounding area. They always had cold, fruit infused water in the front readily available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r591008483-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>591008483</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Nice, clean, new, but a little late and under prepared</t>
+  </si>
+  <si>
+    <t>I’ve stayed here multiple times for work and am always treated friendly and professionally. The facility and the rooms are always clean and well kept; something you would expect from a new hotel.  The only problem I ever encountered is that the “social hours” never start on time and the food is under ordered so they run out quickly and have to scramble to find a substitute.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>I’ve stayed here multiple times for work and am always treated friendly and professionally. The facility and the rooms are always clean and well kept; something you would expect from a new hotel.  The only problem I ever encountered is that the “social hours” never start on time and the food is under ordered so they run out quickly and have to scramble to find a substitute.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r586825654-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
   </si>
   <si>
@@ -249,9 +422,6 @@
     <t>My wife and I stayed at this hotel from 6/5/18 to 6/9/18. First of all this is a nice hotel. The staff were good. The breakfast buffet area was good and the room was excellent (1 Bedroom Suite). We were on the first floor in a room that was next to the main street North Central Park Blvd. First, I must say it was quite noisy in the evening with the traffic outside. It sometimes sounded like a drag strip outside. Second, The room had 2 excellent TV's but only 1 remote. Third, The WiFi was terrible. It was very slow. Finally, I've never been in a hotel without destination literature for the guest. I was surprised to see this. We had to go to the Visitor Center in Denver for literature on sites. Other than that this is a very good hotel with excellent staff. I realize its also new so maybe some of the bugs still have to be worked out.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded June 16, 2018</t>
   </si>
   <si>
@@ -312,6 +482,57 @@
     <t>I stayed here for 2 nights while working in the area. It was super comfortable and the staff attentive and very friendly. Morning breakfast was pretty standard fare but it was all hot and ready on opening. The evening mix was really great too. Would definitely stay here again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r569539472-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>569539472</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Good for Business or Family Travel</t>
+  </si>
+  <si>
+    <t>This is a new property so everything is in great shape. It's located close to a large shopping area with restaurants so that's a plus.I only stayed one night but my interactions with the front desk were great and the staff was very friendly. It's close enough to downtown that this hotel might be a good base to visit Denver with a family and not pay the high downtown rates. My only complaint was the noise in rooms that face the east side. There is a very busy street adjacent to the building with a lot of nighttime truck traffic so ask for a room on the west (mountain facing) side.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>This is a new property so everything is in great shape. It's located close to a large shopping area with restaurants so that's a plus.I only stayed one night but my interactions with the front desk were great and the staff was very friendly. It's close enough to downtown that this hotel might be a good base to visit Denver with a family and not pay the high downtown rates. My only complaint was the noise in rooms that face the east side. There is a very busy street adjacent to the building with a lot of nighttime truck traffic so ask for a room on the west (mountain facing) side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r568356968-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>568356968</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Quick 2 night stay</t>
+  </si>
+  <si>
+    <t>Doing some bathroom repairs at home and needed a place close to home.  I loved the set up of the 2 bedroom suite.   The only negative is the room didn't appear to have been cleaned very well.  A bit dusty.  Also, the bathroom in the king bedroom had a missing knob for the hand held shower attachement and the hole was taped over.  Not very impressive for this suite.  Overall it was good for what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Doing some bathroom repairs at home and needed a place close to home.  I loved the set up of the 2 bedroom suite.   The only negative is the room didn't appear to have been cleaned very well.  A bit dusty.  Also, the bathroom in the king bedroom had a missing knob for the hand held shower attachement and the hole was taped over.  Not very impressive for this suite.  Overall it was good for what we needed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r567688785-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
   </si>
   <si>
@@ -390,6 +611,57 @@
     <t>Loved the stay here wish i could of extended the stay. Very friendly front desk service. Got a great end of the floor room with a decent view and extremely clean, tidy and comfortable room. Can't imagine much better than this for the design with comfort and convenience in mind. Plenty of nearby eateries, although beware they close early even on weekends the choices after 9 pm were limited, but that may not be relevant for everyone. In any case highly recommended to stay here when in area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r549627509-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>549627509</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Very nice new hotel</t>
+  </si>
+  <si>
+    <t>The staff said the hotel was built new in June 2017 and it was very nice. We had a one bedroom suite that was awesome with a very spacious and modern design. The pool and hot tub were very nice too. They had a nice happy hour in the evening and a very nice free breakfast in the morning. I will definitely stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>The staff said the hotel was built new in June 2017 and it was very nice. We had a one bedroom suite that was awesome with a very spacious and modern design. The pool and hot tub were very nice too. They had a nice happy hour in the evening and a very nice free breakfast in the morning. I will definitely stay here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r541473005-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>541473005</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Poor Service  Bad Staffing</t>
+  </si>
+  <si>
+    <t>Does training and customer relations become part of working here.  Very poor attitudes all the way from check in to kids behind the counter to snippy breakfast folks who could not be civil in answering questions.  This place is quite bad, only thing going for it is that it is close to airport but for their pricing, choose a competitor.  Stay away!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Does training and customer relations become part of working here.  Very poor attitudes all the way from check in to kids behind the counter to snippy breakfast folks who could not be civil in answering questions.  This place is quite bad, only thing going for it is that it is close to airport but for their pricing, choose a competitor.  Stay away!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r537665959-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
   </si>
   <si>
@@ -468,6 +740,69 @@
     <t>It was our last night in Colorado and the hotel is conveniently close to the airport.Upon check-in we were greeted by the general manager, Peter Wenzell.He was extremely friendly and we had a great conversation about our hometown , NYC.He made sure our stay was perfect, even calling us once we got to the room to make sure everything was exactly to our liking.The rooms are brand new and very hitech, lots of outlets for chargers, etc.Beautifully laid out and comfortable, great kitchen, comfortable beds and lovely living area. Everything was very clean especially the kitchen and bathroom.The delicious breakfast was a great start for our long day of flying back home.Stapleton is a wonderful area, brand new with great shops and restaurants.All within a short distance from the hotel.The Monday night mixer was a nice way of getting to know your fellow travelers and fingers foods along with craft beer and wine were serve.All around a great experience More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r530042449-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>530042449</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Handy Location, Great Staff, Nice Property</t>
+  </si>
+  <si>
+    <t>The Property:
+Only a few months old, this is the newest look for the Residence Inn, and it felt very residential, which was a good thing. The building itself looked a bit like a cluster of townhomes and there are some actual homes built on the same block. 
+The modern vibe worked both inside and out. Parking is easy, with a lot outside the door, and it was well lit and maintained. It is very convenient to shopping, dining, and entertainment, within walking, or a short drive away. (You will need transportation to get to the hotel, though.)
+It is only four stories, which is great if you don't want to bother with the elevator, the staircase has easy access to the lobby.
+Check in:
+Very smooth and quite personable. The front desk staff, any time we walked by, was pleasant, always smiling, and greeted us. The initial process took all of 5 minutes.
+The living room/kitchen area:
+I had a basic king bed suite and it was plenty. A well-equipped kitchen with fridge, range, microwave, sink, and dishwasher, as well as plenty of cabinets with dishes and flatware. There was even dish soap and a clean cloth. 
+A comfortable L-shaped sofa, high table with two stools, a desk and swivel TV that worked for both lounging and sleeping areas. It was nice that there are two windows so natural light was good. 
+The colors are comfortable and natural and...The Property:Only a few months old, this is the newest look for the Residence Inn, and it felt very residential, which was a good thing. The building itself looked a bit like a cluster of townhomes and there are some actual homes built on the same block. The modern vibe worked both inside and out. Parking is easy, with a lot outside the door, and it was well lit and maintained. It is very convenient to shopping, dining, and entertainment, within walking, or a short drive away. (You will need transportation to get to the hotel, though.)It is only four stories, which is great if you don't want to bother with the elevator, the staircase has easy access to the lobby.Check in:Very smooth and quite personable. The front desk staff, any time we walked by, was pleasant, always smiling, and greeted us. The initial process took all of 5 minutes.The living room/kitchen area:I had a basic king bed suite and it was plenty. A well-equipped kitchen with fridge, range, microwave, sink, and dishwasher, as well as plenty of cabinets with dishes and flatware. There was even dish soap and a clean cloth. A comfortable L-shaped sofa, high table with two stools, a desk and swivel TV that worked for both lounging and sleeping areas. It was nice that there are two windows so natural light was good. The colors are comfortable and natural and the artificial light was good. One misstep, there is no undercabinet lighting, so if you are doing something at the sink or stovetop, it's a bit dark. I didn't find a light under the microwave, though did take a quick look.Wifi was a bit wonky at first, but a call to the front desk had things rebooted and there was not a issue after that. Speed was decent for free wifi in a hotel (remember to use your encrypted service, this is, still, public wifi)The Sleeping area:Typical of anything Marriott, a comfortable bed. Lighting was very good with both ambient and directional lights by the bed...with controls in easy reach. The curtains kept the morning light out, but the windows, unfortunately, let the road noise on the hotel's back side in. If you are a light sleeper, best to ask for a room facing the parking lot.There is a nice area by the closet with drawer space and a mirror directly across. Well lit, and convenient, but the room was missing a full length mirror.The Bathroom:This was a great space and nicely designed. It was roomy and bright, with very good mirror lighting. The walk-in shower was also nice, sized large and well lit. It had built in shelves for a few bottles and wire racks, as well. The shower was powerful and quickly heated to a nice temperature. The fan ran for a long time, I didn't time it, but closing the bath door blocked its humming.The verdict:When visiting the area again, I would absolutely stay here, and have already recommended it to some work colleagues. Nice, clean property with a very nice staff and good amenities.The Extras:•nice breakfast with charming staff, everything from make your own waffles, to standard scramble and sausage, oatmeal, yoghurts, fruit, etc.•indoor pool looked very nice•workout room was nicely equipped and not too small•the lobby was actually a place to hang out, and some evenings they have gatherings with drinks and eats, very nice. It has lots of seating and little nooks to have a smaller meeting or just a quiet moment. Oh, and there is a fireplace, which was nice when gathering in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>The Property:
+Only a few months old, this is the newest look for the Residence Inn, and it felt very residential, which was a good thing. The building itself looked a bit like a cluster of townhomes and there are some actual homes built on the same block. 
+The modern vibe worked both inside and out. Parking is easy, with a lot outside the door, and it was well lit and maintained. It is very convenient to shopping, dining, and entertainment, within walking, or a short drive away. (You will need transportation to get to the hotel, though.)
+It is only four stories, which is great if you don't want to bother with the elevator, the staircase has easy access to the lobby.
+Check in:
+Very smooth and quite personable. The front desk staff, any time we walked by, was pleasant, always smiling, and greeted us. The initial process took all of 5 minutes.
+The living room/kitchen area:
+I had a basic king bed suite and it was plenty. A well-equipped kitchen with fridge, range, microwave, sink, and dishwasher, as well as plenty of cabinets with dishes and flatware. There was even dish soap and a clean cloth. 
+A comfortable L-shaped sofa, high table with two stools, a desk and swivel TV that worked for both lounging and sleeping areas. It was nice that there are two windows so natural light was good. 
+The colors are comfortable and natural and...The Property:Only a few months old, this is the newest look for the Residence Inn, and it felt very residential, which was a good thing. The building itself looked a bit like a cluster of townhomes and there are some actual homes built on the same block. The modern vibe worked both inside and out. Parking is easy, with a lot outside the door, and it was well lit and maintained. It is very convenient to shopping, dining, and entertainment, within walking, or a short drive away. (You will need transportation to get to the hotel, though.)It is only four stories, which is great if you don't want to bother with the elevator, the staircase has easy access to the lobby.Check in:Very smooth and quite personable. The front desk staff, any time we walked by, was pleasant, always smiling, and greeted us. The initial process took all of 5 minutes.The living room/kitchen area:I had a basic king bed suite and it was plenty. A well-equipped kitchen with fridge, range, microwave, sink, and dishwasher, as well as plenty of cabinets with dishes and flatware. There was even dish soap and a clean cloth. A comfortable L-shaped sofa, high table with two stools, a desk and swivel TV that worked for both lounging and sleeping areas. It was nice that there are two windows so natural light was good. The colors are comfortable and natural and the artificial light was good. One misstep, there is no undercabinet lighting, so if you are doing something at the sink or stovetop, it's a bit dark. I didn't find a light under the microwave, though did take a quick look.Wifi was a bit wonky at first, but a call to the front desk had things rebooted and there was not a issue after that. Speed was decent for free wifi in a hotel (remember to use your encrypted service, this is, still, public wifi)The Sleeping area:Typical of anything Marriott, a comfortable bed. Lighting was very good with both ambient and directional lights by the bed...with controls in easy reach. The curtains kept the morning light out, but the windows, unfortunately, let the road noise on the hotel's back side in. If you are a light sleeper, best to ask for a room facing the parking lot.There is a nice area by the closet with drawer space and a mirror directly across. Well lit, and convenient, but the room was missing a full length mirror.The Bathroom:This was a great space and nicely designed. It was roomy and bright, with very good mirror lighting. The walk-in shower was also nice, sized large and well lit. It had built in shelves for a few bottles and wire racks, as well. The shower was powerful and quickly heated to a nice temperature. The fan ran for a long time, I didn't time it, but closing the bath door blocked its humming.The verdict:When visiting the area again, I would absolutely stay here, and have already recommended it to some work colleagues. Nice, clean property with a very nice staff and good amenities.The Extras:•nice breakfast with charming staff, everything from make your own waffles, to standard scramble and sausage, oatmeal, yoghurts, fruit, etc.•indoor pool looked very nice•workout room was nicely equipped and not too small•the lobby was actually a place to hang out, and some evenings they have gatherings with drinks and eats, very nice. It has lots of seating and little nooks to have a smaller meeting or just a quiet moment. Oh, and there is a fireplace, which was nice when gathering in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r529531178-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>529531178</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Clean room and friendly staff</t>
+  </si>
+  <si>
+    <t>This is a relatively new hotel so the room looked clean and spacious.Every staff was friendly and the breakfast was great with lots of fresh fruits.After we checked in and before we parked our car and brought everything to our room, the crib was ready and set up in our room waiting for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>This is a relatively new hotel so the room looked clean and spacious.Every staff was friendly and the breakfast was great with lots of fresh fruits.After we checked in and before we parked our car and brought everything to our room, the crib was ready and set up in our room waiting for us.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r528311946-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
   </si>
   <si>
@@ -483,9 +818,6 @@
     <t>This recently built hotel was in the perfect location. Quick walk to many restaurants and boutique shopping. Breakfast typical for this type of hotel but sufficient. Friendly staff. Clean rooms with space to sprawl make this a nice option for business travel. MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded October 2, 2017</t>
   </si>
   <si>
@@ -546,6 +878,57 @@
     <t>My son and I stayed at the hotel on a college visit to the Denver area. The hotel is brand new and our suite was very comfortable and well designed. Staff were pleasant and professional. The location is very central for heading south to Colorado Springs, north to Boulder or 15 minutes to downtown Denver. Located right on I-70 (also if you a runner easy places to run in the morning heading north from the hotel)Overall a very pleasant stay with nice brand new facilities. Would definitely recommend the hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r519154466-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>519154466</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff and an excellent stay</t>
+  </si>
+  <si>
+    <t>My family of four spent six nights at this property in a one-bedroom suite as part of a two week family vacation. My mother also joined us for several nights in her own studio room.  We travel a fair amount with our kids and I have to say that this hotel has the friendliest staff of pretty much anywhere that we've stayed.  The manager Peter went out of his way to make us all feel at home and address any issues that came up.  (such as a problem with the AC that was caused by a power outage)The building is brand new, the breakfast is the best free continental breakfast that I've had at a hotel, and the location is perfectly located between the airport and the center of Denver.  There's a nice outdoor patio area with a grill which we used for a simple late night dinner.  The hotel is conveniently located near a large shopping area including a selection of restaurants, a Gameworks arcade (which the kids went nuts over), and a Target that we utilized several times.I'm very happy with our stay here and would definitely stay again if we ever find ourselves returning to the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded September 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2017</t>
+  </si>
+  <si>
+    <t>My family of four spent six nights at this property in a one-bedroom suite as part of a two week family vacation. My mother also joined us for several nights in her own studio room.  We travel a fair amount with our kids and I have to say that this hotel has the friendliest staff of pretty much anywhere that we've stayed.  The manager Peter went out of his way to make us all feel at home and address any issues that came up.  (such as a problem with the AC that was caused by a power outage)The building is brand new, the breakfast is the best free continental breakfast that I've had at a hotel, and the location is perfectly located between the airport and the center of Denver.  There's a nice outdoor patio area with a grill which we used for a simple late night dinner.  The hotel is conveniently located near a large shopping area including a selection of restaurants, a Gameworks arcade (which the kids went nuts over), and a Target that we utilized several times.I'm very happy with our stay here and would definitely stay again if we ever find ourselves returning to the Denver area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r517697623-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>517697623</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Outstanding manager and staff</t>
+  </si>
+  <si>
+    <t>When we arrived at this property the room we were assigned did not adequately accommodate our 99 year old mother. Peter, the hotel manager, went well above and beyond to find us a better room. The room he assigned us was perfect for a disabled person and made our 3 week stay stress free. Peter was extremely helpful throughout our stay. He is very personable and greets and engages with hotel guests at breakfast and at happy hours.  He promptly addresses any issues. In fact ALL the staff at this location were extremely friendly and helpful. We wouldn't hesitate to highly recommend this location. MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded August 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2017</t>
+  </si>
+  <si>
+    <t>When we arrived at this property the room we were assigned did not adequately accommodate our 99 year old mother. Peter, the hotel manager, went well above and beyond to find us a better room. The room he assigned us was perfect for a disabled person and made our 3 week stay stress free. Peter was extremely helpful throughout our stay. He is very personable and greets and engages with hotel guests at breakfast and at happy hours.  He promptly addresses any issues. In fact ALL the staff at this location were extremely friendly and helpful. We wouldn't hesitate to highly recommend this location. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r515541039-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
   </si>
   <si>
@@ -561,9 +944,6 @@
     <t>My wife and I plus our two sons 18 and 17 stayed for two nights and were upgraded the second night from a 1 br to a 2 br because we have Marriott gold status The staff was amazing they moved our packed stuff for us on day two while we were in boulder for the day The hotel is brand new and convenient to everything Highly recommended MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded August 21, 2017</t>
   </si>
   <si>
@@ -612,6 +992,48 @@
     <t>This is one of the new model Residence Inn's with an indoor pool, outdoor basketball court and spacious eating area for the free breakfast.  There are gas stations about two miles away where you can top off your rental tank before heading the airport the next morning.  You're probably burning a gallon on the way to the drop-off, but not enough for the car not to show full.  The hotel staff was nice, the room was clean.  Hotel is very fresh.  A good stop for Marriott Club members flying out the next morning.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r511360534-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>511360534</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Just fantastic</t>
+  </si>
+  <si>
+    <t>We pulled in exhausted with 4 whining kids and some how our reservation was lost... Stephanie the night clerk was so incredibly kind, she apologized profusely and very quickly got us into rooms (we'd booked a 2 bedroom suite and she got us into 2 king suites next door to each other which worked out so perfect!In the morning the breakfast spread was amazing bacon and sausage!!  My boys were in heaven, multiple cereal options, fresh fruit and the most helpful event manager!  Brandon saw us come in and did his best to help us get situated, and checked on us frequently " can I grab you more food, drink, napkins". Out 7 year old spilled an orange juice in front of him and he was more concerned with our lil guy not being upset than the mess!We were so impressed with both Stephanie and Brandon!  Marriott better not let those 2 get away!  They care about their jobs and the people they help!MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2017</t>
+  </si>
+  <si>
+    <t>We pulled in exhausted with 4 whining kids and some how our reservation was lost... Stephanie the night clerk was so incredibly kind, she apologized profusely and very quickly got us into rooms (we'd booked a 2 bedroom suite and she got us into 2 king suites next door to each other which worked out so perfect!In the morning the breakfast spread was amazing bacon and sausage!!  My boys were in heaven, multiple cereal options, fresh fruit and the most helpful event manager!  Brandon saw us come in and did his best to help us get situated, and checked on us frequently " can I grab you more food, drink, napkins". Out 7 year old spilled an orange juice in front of him and he was more concerned with our lil guy not being upset than the mess!We were so impressed with both Stephanie and Brandon!  Marriott better not let those 2 get away!  They care about their jobs and the people they help!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r511120725-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>511120725</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel  - Worst Management</t>
+  </si>
+  <si>
+    <t>Brand New Property - Convenient location between airport &amp; downtown Denver. Walking distance from The Shops at Northfield (Target, Restaurants and a movie theatre) (No shuttle provided and side walk not build yet). I attended a conference in Downtown Denver it was 30 minutes away (average) - Our biggest issue was Housekeeping - our room was serviced properly only once - refreshed two times and skipped two times during a six days stay - Worst is issue was never corrected during our stay - we were promised free nights and points. Still waiting :) Both General Manager Peter Wenzell and Front Desk Manager Ron Capio are not capable of correcting anything and will deliver empty promises. Breakfast was good but not consistent (items were missing or it wasn't replenished in a timely manner) coffee pot was empty and I drove to a Starbucks around the corner few times. (5 min away on Peoria St by car). I saw guests having hard time checking at night - I didn't experience it personally. I will not stay in this property again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand New Property - Convenient location between airport &amp; downtown Denver. Walking distance from The Shops at Northfield (Target, Restaurants and a movie theatre) (No shuttle provided and side walk not build yet). I attended a conference in Downtown Denver it was 30 minutes away (average) - Our biggest issue was Housekeeping - our room was serviced properly only once - refreshed two times and skipped two times during a six days stay - Worst is issue was never corrected during our stay - we were promised free nights and points. Still waiting :) Both General Manager Peter Wenzell and Front Desk Manager Ron Capio are not capable of correcting anything and will deliver empty promises. Breakfast was good but not consistent (items were missing or it wasn't replenished in a timely manner) coffee pot was empty and I drove to a Starbucks around the corner few times. (5 min away on Peoria St by car). I saw guests having hard time checking at night - I didn't experience it personally. I will not stay in this property again! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r510810739-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
   </si>
   <si>
@@ -676,6 +1098,57 @@
   </si>
   <si>
     <t>First off, prior to arrival I received an email from GM Peter Wenzell. He wanted to make sure that my daughter's stay would be exceptional. It was. My daughter was travelling to the East Coast for college. He welcomed her and wanted to do whatever necessary to make the stay positively memorable. An incredible touch. Unheralded. It was a great stop in Denver. They impeccably cared for her. For a father, could anything have been more important? When in Denver, I will go out of my to patronize this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r508495582-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>508495582</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights and found this hotel to be just wonderful.  We were worried because some of the reviews were not not good, but they seem to have all their issues resolved.  It is very pretty, the rooms are spacious.  The bathrooms are really nice, great kitchen area.  They have a manager named Peter who greets everyone at breakfast and is genuinely interested- asks if there is anything to make stay better.  We liked it very much, we will stay here again, probably every trip to Denver. MoreShow less</t>
+  </si>
+  <si>
+    <t>Peter W, General Manager at Residence Inn Denver Stapleton, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>We stayed 4 nights and found this hotel to be just wonderful.  We were worried because some of the reviews were not not good, but they seem to have all their issues resolved.  It is very pretty, the rooms are spacious.  The bathrooms are really nice, great kitchen area.  They have a manager named Peter who greets everyone at breakfast and is genuinely interested- asks if there is anything to make stay better.  We liked it very much, we will stay here again, probably every trip to Denver. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r506315136-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>506315136</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Top notch!</t>
+  </si>
+  <si>
+    <t>New and clean, with friendly and helpful staff. A minor quibble was that we weren't given fresh towels we'd requested, but I think housekeeping is understaffed at the moment. Overall, a VERY good experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>New and clean, with friendly and helpful staff. A minor quibble was that we weren't given fresh towels we'd requested, but I think housekeeping is understaffed at the moment. Overall, a VERY good experience!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r500399138-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
@@ -698,9 +1171,6 @@
 Like I said they asked us to return at 4 pm so we could check in.  We came back at 5:30pm, 1 1/2 hour later than they said our rooms would be ready.  Only one room was ready.  They said it would be about 10 minutes till the 2nd room would be available.  I gave the one room key to the other couple and they went to their room.  My wife and I waited for the second room to become available.   We waited and waited.  Ten minutes turned into twenty, all the time my wife and I waiting in the lobby with our luggage.  It seemed the manager, Phillip, did not care if we got a room.  He was doing everything else but not even checking on things...The good.  We arrived early the morning of our reservation for two rooms.  They said we were too early and volunteered to store our luggage saying we could come back at 4pm so we could check in.  We said no problem, we would come back that afternoon.  We appreciated them storing our luggage for the day.The rooms were new, roomy and nice. Stove, refrigerator, completely stocked kitchen for cooking. The king bed was very comfortable.  Very nice.  Everything is new at this hotel.Late afternoon happy hour in the lobby was good.  Free cheap beer, wine, ice cream and s'mores.  Wait staff was friendly and efficient for happy hour.The bad.Like I said they asked us to return at 4 pm so we could check in.  We came back at 5:30pm, 1 1/2 hour later than they said our rooms would be ready.  Only one room was ready.  They said it would be about 10 minutes till the 2nd room would be available.  I gave the one room key to the other couple and they went to their room.  My wife and I waited for the second room to become available.   We waited and waited.  Ten minutes turned into twenty, all the time my wife and I waiting in the lobby with our luggage.  It seemed the manager, Phillip, did not care if we got a room.  He was doing everything else but not even checking on things for us.  We had to continually bug him to get updates.  It took 45 minutes before we were given a room key. A 10 minute wait turned into 45. We were pretty upset when we finally got into our room.The other couple said there was only one bath towel in their room.  We had four in ours. I think they are under staffed. Not the best experience, even though the rooms were nice.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded July 13, 2017</t>
   </si>
   <si>
@@ -749,6 +1219,45 @@
   </si>
   <si>
     <t>While the staff was extremely friendly, especially the gentlemen working the breakfast (although what breakfast has cereal but no milk), our room was filthy. Dirty bathroom sinks, food in the sink in the kitchenette, dirty dishes in the dishwasher and dirty dishes put away in the cupboard, dirty and sticky floors, and food spilled all over refrigerator. I'm really hoping the sheets were clean even though it looked as though someone had been laying on the bed. This location just opened but they need a new housekeeping staff already!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r498822140-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>498822140</t>
+  </si>
+  <si>
+    <t>Filthy rooms especially considering it's only been open a month</t>
+  </si>
+  <si>
+    <t>I stayed here with my family on the 4th of July. Our first room we were given had dirty dishes in the dishwasher, cleaning rags on the table, floors unswept, and spilled pop all over the top shelf of the fridge. We asked for another room and were given an 'upgrade' to the 2-bedroom suite. We found the second room in much the same condition. There was food in the sink, dirty floors, dirty cups with lipstick in the cupboards, and long black hair all over both bathrooms. I appreciated the effort of the front desk clerk, but the housekeeping needs a reboot at this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my family on the 4th of July. Our first room we were given had dirty dishes in the dishwasher, cleaning rags on the table, floors unswept, and spilled pop all over the top shelf of the fridge. We asked for another room and were given an 'upgrade' to the 2-bedroom suite. We found the second room in much the same condition. There was food in the sink, dirty floors, dirty cups with lipstick in the cupboards, and long black hair all over both bathrooms. I appreciated the effort of the front desk clerk, but the housekeeping needs a reboot at this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r494708709-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>494708709</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel, very new and some teathing problems.  The hotel is beautiful with stylish rooms, great location and attentive staff.  All in all a wonderful stay and was there during their cook out night, tasty hamburgers and juicy brats.  They even have complementary beer and wine people !!!! Can't be beat.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tharaldson, Guest Relations Manager at Residence Inn Denver Stapleton, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Recently stayed at this hotel, very new and some teathing problems.  The hotel is beautiful with stylish rooms, great location and attentive staff.  All in all a wonderful stay and was there during their cook out night, tasty hamburgers and juicy brats.  They even have complementary beer and wine people !!!! Can't be beat.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d12156898-r492075219-Residence_Inn_Denver_Stapleton-Denver_Colorado.html</t>
@@ -1307,7 +1816,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1315,18 +1824,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1374,35 +1877,37 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
         <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1418,7 +1923,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1427,28 +1932,28 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1463,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
         <v>70</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1485,7 +1990,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1494,47 +1999,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
       <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" t="s">
-        <v>77</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
         <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1550,7 +2047,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1559,22 +2056,26 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -1585,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
         <v>86</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>87</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1607,7 +2108,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1616,43 +2117,49 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
         <v>93</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
         <v>95</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>96</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -1668,7 +2175,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1677,49 +2184,47 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
       </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -1735,7 +2240,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1744,49 +2249,49 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1802,7 +2307,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1811,34 +2316,34 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="n">
         <v>5</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -1847,13 +2352,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -1869,7 +2374,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1878,25 +2383,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1908,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -1930,7 +2435,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1939,32 +2444,32 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -1973,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -1995,7 +2500,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2004,47 +2509,39 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
-        <v>129</v>
-      </c>
-      <c r="O13" t="s">
-        <v>146</v>
-      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
@@ -2060,7 +2557,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2069,25 +2566,25 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2099,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -2121,7 +2618,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2130,43 +2627,49 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
@@ -2182,7 +2685,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2191,47 +2694,49 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
       <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -2247,7 +2752,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2256,43 +2761,49 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -2308,7 +2819,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2317,47 +2828,49 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
@@ -2373,7 +2886,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2382,27 +2895,29 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>191</v>
       </c>
-      <c r="J19" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" t="s">
-        <v>193</v>
-      </c>
-      <c r="L19" t="s">
-        <v>194</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>181</v>
-      </c>
       <c r="O19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="n">
         <v>5</v>
       </c>
@@ -2416,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
@@ -2438,7 +2953,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2447,49 +2962,43 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
         <v>199</v>
       </c>
-      <c r="J20" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" t="s">
-        <v>201</v>
-      </c>
-      <c r="L20" t="s">
-        <v>202</v>
-      </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
@@ -2505,7 +3014,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2514,44 +3023,46 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
         <v>207</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
         <v>208</v>
-      </c>
-      <c r="K21" t="s">
-        <v>209</v>
-      </c>
-      <c r="L21" t="s">
-        <v>210</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>181</v>
       </c>
       <c r="O21" t="s">
         <v>52</v>
       </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s">
         <v>211</v>
@@ -2591,35 +3102,31 @@
         <v>216</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -2635,7 +3142,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2644,37 +3151,35 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2723,31 +3228,35 @@
         <v>233</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
@@ -2763,7 +3272,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2772,43 +3281,49 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="X25" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
@@ -2824,7 +3339,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2833,43 +3348,1364 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>243</v>
       </c>
-      <c r="K26" t="s">
-        <v>244</v>
-      </c>
-      <c r="L26" t="s">
-        <v>245</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>164</v>
-      </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="X26" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>243</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>275</v>
+      </c>
+      <c r="X29" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>284</v>
+      </c>
+      <c r="X30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" t="s">
+        <v>289</v>
+      </c>
+      <c r="K31" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s">
+        <v>291</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>292</v>
+      </c>
+      <c r="X31" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>283</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>283</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>321</v>
+      </c>
+      <c r="X35" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>325</v>
+      </c>
+      <c r="J36" t="s">
+        <v>326</v>
+      </c>
+      <c r="K36" t="s">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>321</v>
+      </c>
+      <c r="X36" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>335</v>
+      </c>
+      <c r="X37" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>338</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>339</v>
+      </c>
+      <c r="J38" t="s">
+        <v>340</v>
+      </c>
+      <c r="K38" t="s">
+        <v>341</v>
+      </c>
+      <c r="L38" t="s">
+        <v>342</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>335</v>
+      </c>
+      <c r="X38" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>344</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>345</v>
+      </c>
+      <c r="J39" t="s">
+        <v>346</v>
+      </c>
+      <c r="K39" t="s">
+        <v>347</v>
+      </c>
+      <c r="L39" t="s">
+        <v>348</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>349</v>
+      </c>
+      <c r="X39" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>353</v>
+      </c>
+      <c r="J40" t="s">
+        <v>354</v>
+      </c>
+      <c r="K40" t="s">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s">
+        <v>356</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>283</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>357</v>
+      </c>
+      <c r="X40" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>360</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>361</v>
+      </c>
+      <c r="J41" t="s">
+        <v>362</v>
+      </c>
+      <c r="K41" t="s">
+        <v>363</v>
+      </c>
+      <c r="L41" t="s">
+        <v>364</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>365</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>366</v>
+      </c>
+      <c r="X41" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s">
+        <v>373</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" t="s">
+        <v>379</v>
+      </c>
+      <c r="K43" t="s">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s">
+        <v>381</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>365</v>
+      </c>
+      <c r="O43" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>374</v>
+      </c>
+      <c r="X43" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>383</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>384</v>
+      </c>
+      <c r="J44" t="s">
+        <v>385</v>
+      </c>
+      <c r="K44" t="s">
+        <v>386</v>
+      </c>
+      <c r="L44" t="s">
+        <v>387</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>365</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>374</v>
+      </c>
+      <c r="X44" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>385</v>
+      </c>
+      <c r="K45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L45" t="s">
+        <v>392</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>365</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>374</v>
+      </c>
+      <c r="X45" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s">
+        <v>397</v>
+      </c>
+      <c r="L46" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>266</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>399</v>
+      </c>
+      <c r="X46" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65823</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>403</v>
+      </c>
+      <c r="J47" t="s">
+        <v>404</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="L47" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>266</v>
+      </c>
+      <c r="O47" t="s">
+        <v>93</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>407</v>
+      </c>
+      <c r="X47" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
